--- a/Web_QM/Web_QM/wwwroot/templates/import_quy trình.xlsx
+++ b/Web_QM/Web_QM/wwwroot/templates/import_quy trình.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternalQM-MVC-ASP.NET\Web_QM\Web_QM\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799E86D-C199-4345-8858-A4D5E810C2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E0225-416D-4AD2-8B4F-5400BD8A715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD4380A2-1DE5-49A2-9DCC-8AB60F837320}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="import Quy trình" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'import Quy trình'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'import Quy trình'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kích thước phôi</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Tên chi tiết</t>
+  </si>
+  <si>
+    <t>Bản vẽ</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F31D5-4D5B-43F6-AE49-4F3941410D5C}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -435,51 +438,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.140625" customWidth="1"/>
-    <col min="8" max="12" width="17.7109375" customWidth="1"/>
+    <col min="1" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{956F31D5-4D5B-43F6-AE49-4F3941410D5C}"/>
+  <autoFilter ref="A1:M1" xr:uid="{956F31D5-4D5B-43F6-AE49-4F3941410D5C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>